--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\Mingguan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F176D8-0B8E-4977-B3D5-D6E2DCA0CDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C9892A-3DDB-4DE3-A8E3-C6D762983C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -31,9 +31,15 @@
     <t>Tugas 1</t>
   </si>
   <si>
+    <t>Tugas 2</t>
+  </si>
+  <si>
     <t>MAT8</t>
   </si>
   <si>
+    <t>PBO3</t>
+  </si>
+  <si>
     <t>Abu Abdirrahman Zenky</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>Mohammad Ilham Saputra</t>
+  </si>
+  <si>
+    <t>ü</t>
   </si>
   <si>
     <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
@@ -143,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +173,22 @@
       <sz val="14"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Wingdings"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -213,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +243,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,350 +538,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:C37"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" customHeight="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" customHeight="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" customHeight="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" customHeight="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" customHeight="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" customHeight="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" customHeight="1">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" customHeight="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" customHeight="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" customHeight="1">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" customHeight="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" customHeight="1">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" customHeight="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" customHeight="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2"/>
+      <c r="D37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -582,6 +582,16 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="13" t="n"/>
@@ -596,6 +606,16 @@
           <t>PBO3</t>
         </is>
       </c>
+      <c r="E2" s="14" t="inlineStr">
+        <is>
+          <t>PAI8</t>
+        </is>
+      </c>
+      <c r="F2" s="14" t="inlineStr">
+        <is>
+          <t>BING5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="11" t="n">
@@ -608,6 +628,12 @@
       </c>
       <c r="C3" s="11" t="inlineStr"/>
       <c r="D3" s="15" t="inlineStr"/>
+      <c r="E3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F3" s="15" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -620,6 +646,12 @@
       </c>
       <c r="C4" s="11" t="inlineStr"/>
       <c r="D4" s="15" t="inlineStr"/>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="15" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -632,6 +664,12 @@
       </c>
       <c r="C5" s="11" t="inlineStr"/>
       <c r="D5" s="15" t="inlineStr"/>
+      <c r="E5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="15" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -644,6 +682,8 @@
       </c>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="15" t="inlineStr"/>
+      <c r="E6" s="11" t="inlineStr"/>
+      <c r="F6" s="15" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -656,6 +696,8 @@
       </c>
       <c r="C7" s="11" t="inlineStr"/>
       <c r="D7" s="15" t="inlineStr"/>
+      <c r="E7" s="11" t="inlineStr"/>
+      <c r="F7" s="15" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -668,6 +710,8 @@
       </c>
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="15" t="inlineStr"/>
+      <c r="E8" s="11" t="inlineStr"/>
+      <c r="F8" s="15" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -684,6 +728,12 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -696,6 +746,8 @@
       </c>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="15" t="inlineStr"/>
+      <c r="E10" s="11" t="inlineStr"/>
+      <c r="F10" s="15" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -706,8 +758,22 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr"/>
-      <c r="D11" s="15" t="inlineStr"/>
+      <c r="C11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -720,6 +786,8 @@
       </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="15" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr"/>
+      <c r="F12" s="15" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -740,6 +808,12 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -751,7 +825,17 @@
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr"/>
-      <c r="D14" s="15" t="inlineStr"/>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -768,6 +852,12 @@
         </is>
       </c>
       <c r="D15" s="15" t="inlineStr"/>
+      <c r="E15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -780,6 +870,12 @@
       </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -792,6 +888,8 @@
       </c>
       <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -804,6 +902,8 @@
       </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="11" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -816,6 +916,8 @@
       </c>
       <c r="C19" s="11" t="inlineStr"/>
       <c r="D19" s="15" t="inlineStr"/>
+      <c r="E19" s="11" t="inlineStr"/>
+      <c r="F19" s="15" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -826,8 +928,22 @@
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr"/>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D20" s="15" t="inlineStr"/>
+      <c r="E20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -844,6 +960,8 @@
         </is>
       </c>
       <c r="D21" s="15" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="15" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -856,6 +974,8 @@
       </c>
       <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="15" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="15" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -868,6 +988,8 @@
       </c>
       <c r="C23" s="11" t="inlineStr"/>
       <c r="D23" s="15" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="15" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -880,6 +1002,12 @@
       </c>
       <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="15" t="inlineStr"/>
+      <c r="E24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F24" s="15" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -900,6 +1028,12 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="15" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -912,6 +1046,12 @@
       </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="15" t="inlineStr"/>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="F26" s="15" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -924,6 +1064,8 @@
       </c>
       <c r="C27" s="11" t="inlineStr"/>
       <c r="D27" s="15" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
+      <c r="F27" s="15" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -940,6 +1082,12 @@
         </is>
       </c>
       <c r="D28" s="15" t="inlineStr"/>
+      <c r="E28" s="11" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -952,6 +1100,12 @@
       </c>
       <c r="C29" s="11" t="inlineStr"/>
       <c r="D29" s="15" t="inlineStr"/>
+      <c r="E29" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -962,8 +1116,14 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="11" t="inlineStr"/>
+      <c r="C30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D30" s="15" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
+      <c r="F30" s="15" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -979,7 +1139,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D31" s="15" t="inlineStr"/>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -992,6 +1162,8 @@
       </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="15" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="15" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1004,6 +1176,12 @@
       </c>
       <c r="C33" s="11" t="inlineStr"/>
       <c r="D33" s="15" t="inlineStr"/>
+      <c r="E33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F33" s="15" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
@@ -1015,7 +1193,17 @@
         </is>
       </c>
       <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="15" t="inlineStr"/>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="15" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1026,8 +1214,22 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="11" t="inlineStr"/>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1044,6 +1246,12 @@
       </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="15" t="inlineStr"/>
+      <c r="E36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="15" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1056,6 +1264,12 @@
       </c>
       <c r="C37" s="11" t="inlineStr"/>
       <c r="D37" s="15" t="inlineStr"/>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="F37" s="15" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -36,10 +40,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="14"/>
-    </font>
-    <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
     </font>
     <font>
       <sz val="12"/>
@@ -159,28 +159,28 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -200,10 +200,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,10 +549,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -592,6 +592,11 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="13" t="n"/>
@@ -616,6 +621,11 @@
           <t>BING5</t>
         </is>
       </c>
+      <c r="G2" s="14" t="inlineStr">
+        <is>
+          <t>PKK4</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="11" t="n">
@@ -628,12 +638,17 @@
       </c>
       <c r="C3" s="11" t="inlineStr"/>
       <c r="D3" s="15" t="inlineStr"/>
-      <c r="E3" s="17" t="inlineStr">
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F3" s="15" t="inlineStr"/>
+      <c r="G3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -646,12 +661,13 @@
       </c>
       <c r="C4" s="11" t="inlineStr"/>
       <c r="D4" s="15" t="inlineStr"/>
-      <c r="E4" s="17" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F4" s="15" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -662,14 +678,23 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr"/>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="15" t="inlineStr"/>
-      <c r="E5" s="17" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr"/>
+      <c r="G5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -684,6 +709,7 @@
       <c r="D6" s="15" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
       <c r="F6" s="15" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -696,8 +722,17 @@
       </c>
       <c r="C7" s="11" t="inlineStr"/>
       <c r="D7" s="15" t="inlineStr"/>
-      <c r="E7" s="11" t="inlineStr"/>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F7" s="15" t="inlineStr"/>
+      <c r="G7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -712,6 +747,7 @@
       <c r="D8" s="15" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
       <c r="F8" s="15" t="inlineStr"/>
+      <c r="G8" s="11" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -723,17 +759,22 @@
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr"/>
-      <c r="D9" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
+      <c r="D9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F9" s="15" t="inlineStr"/>
+      <c r="G9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -748,6 +789,7 @@
       <c r="D10" s="15" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
       <c r="F10" s="15" t="inlineStr"/>
+      <c r="G10" s="11" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -758,22 +800,27 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D11" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F11" s="15" t="inlineStr"/>
+      <c r="G11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -786,8 +833,13 @@
       </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="15" t="inlineStr"/>
-      <c r="E12" s="11" t="inlineStr"/>
+      <c r="E12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F12" s="15" t="inlineStr"/>
+      <c r="G12" s="11" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -798,22 +850,31 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D13" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E13" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F13" s="15" t="inlineStr"/>
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F13" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -825,7 +886,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr"/>
-      <c r="D14" s="16" t="inlineStr">
+      <c r="D14" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -836,6 +897,11 @@
         </is>
       </c>
       <c r="F14" s="15" t="inlineStr"/>
+      <c r="G14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -846,18 +912,19 @@
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="17" t="inlineStr">
+      <c r="C15" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="D15" s="15" t="inlineStr"/>
-      <c r="E15" s="17" t="inlineStr">
+      <c r="E15" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F15" s="15" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -870,12 +937,13 @@
       </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="15" t="inlineStr"/>
-      <c r="E16" s="17" t="inlineStr">
+      <c r="E16" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F16" s="15" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -890,6 +958,7 @@
       <c r="D17" s="15" t="inlineStr"/>
       <c r="E17" s="11" t="inlineStr"/>
       <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -902,8 +971,21 @@
       </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="15" t="inlineStr"/>
-      <c r="E18" s="11" t="inlineStr"/>
-      <c r="F18" s="15" t="inlineStr"/>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -916,8 +998,13 @@
       </c>
       <c r="C19" s="11" t="inlineStr"/>
       <c r="D19" s="15" t="inlineStr"/>
-      <c r="E19" s="11" t="inlineStr"/>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F19" s="15" t="inlineStr"/>
+      <c r="G19" s="11" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -928,18 +1015,27 @@
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D20" s="15" t="inlineStr"/>
-      <c r="E20" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G20" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -954,14 +1050,23 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="D21" s="15" t="inlineStr"/>
-      <c r="E21" s="11" t="inlineStr"/>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F21" s="15" t="inlineStr"/>
+      <c r="G21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -976,6 +1081,7 @@
       <c r="D22" s="15" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="15" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -990,6 +1096,7 @@
       <c r="D23" s="15" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr"/>
       <c r="F23" s="15" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -1002,12 +1109,17 @@
       </c>
       <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="15" t="inlineStr"/>
-      <c r="E24" s="17" t="inlineStr">
+      <c r="E24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F24" s="15" t="inlineStr"/>
+      <c r="G24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -1018,22 +1130,27 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="17" t="inlineStr">
+      <c r="C25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F25" s="15" t="inlineStr"/>
+      <c r="G25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -1052,6 +1169,11 @@
         </is>
       </c>
       <c r="F26" s="15" t="inlineStr"/>
+      <c r="G26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -1064,8 +1186,17 @@
       </c>
       <c r="C27" s="11" t="inlineStr"/>
       <c r="D27" s="15" t="inlineStr"/>
-      <c r="E27" s="11" t="inlineStr"/>
+      <c r="E27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F27" s="15" t="inlineStr"/>
+      <c r="G27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -1076,7 +1207,7 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr">
+      <c r="C28" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1088,6 +1219,7 @@
         </is>
       </c>
       <c r="F28" s="15" t="inlineStr"/>
+      <c r="G28" s="11" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -1100,12 +1232,17 @@
       </c>
       <c r="C29" s="11" t="inlineStr"/>
       <c r="D29" s="15" t="inlineStr"/>
-      <c r="E29" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F29" s="15" t="inlineStr"/>
+      <c r="E29" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F29" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G29" s="11" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -1116,14 +1253,23 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D30" s="15" t="inlineStr"/>
-      <c r="E30" s="11" t="inlineStr"/>
+      <c r="C30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D30" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F30" s="15" t="inlineStr"/>
+      <c r="G30" s="11" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -1134,22 +1280,31 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E31" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F31" s="15" t="inlineStr"/>
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -1164,6 +1319,7 @@
       <c r="D32" s="15" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="15" t="inlineStr"/>
+      <c r="G32" s="11" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1174,14 +1330,27 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr"/>
-      <c r="D33" s="15" t="inlineStr"/>
-      <c r="E33" s="17" t="inlineStr">
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F33" s="15" t="inlineStr"/>
+      <c r="G33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
@@ -1193,17 +1362,22 @@
         </is>
       </c>
       <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="17" t="inlineStr">
+      <c r="D34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F34" s="15" t="inlineStr"/>
+      <c r="G34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1214,22 +1388,27 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E35" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="16" t="inlineStr">
+      <c r="C35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1246,12 +1425,13 @@
       </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="15" t="inlineStr"/>
-      <c r="E36" s="17" t="inlineStr">
+      <c r="E36" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F36" s="15" t="inlineStr"/>
+      <c r="G36" s="11" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1263,13 +1443,18 @@
         </is>
       </c>
       <c r="C37" s="11" t="inlineStr"/>
-      <c r="D37" s="15" t="inlineStr"/>
+      <c r="D37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E37" s="11" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
       <c r="F37" s="15" t="inlineStr"/>
+      <c r="G37" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -1004,7 +1004,11 @@
         </is>
       </c>
       <c r="F19" s="15" t="inlineStr"/>
-      <c r="G19" s="11" t="inlineStr"/>
+      <c r="G19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -643,7 +643,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F3" s="15" t="inlineStr"/>
+      <c r="F3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -667,7 +671,11 @@
         </is>
       </c>
       <c r="F4" s="15" t="inlineStr"/>
-      <c r="G4" s="11" t="inlineStr"/>
+      <c r="G4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -924,7 +932,11 @@
         </is>
       </c>
       <c r="F15" s="15" t="inlineStr"/>
-      <c r="G15" s="11" t="inlineStr"/>
+      <c r="G15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -1065,7 +1077,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F21" s="15" t="inlineStr"/>
+      <c r="F21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1083,7 +1099,11 @@
       </c>
       <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="15" t="inlineStr"/>
-      <c r="E22" s="11" t="inlineStr"/>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F22" s="15" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
     </row>
@@ -1216,14 +1236,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D28" s="15" t="inlineStr"/>
+      <c r="D28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
       <c r="F28" s="15" t="inlineStr"/>
-      <c r="G28" s="11" t="inlineStr"/>
+      <c r="G28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -1458,7 +1486,11 @@
         </is>
       </c>
       <c r="F37" s="15" t="inlineStr"/>
-      <c r="G37" s="11" t="inlineStr"/>
+      <c r="G37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -728,7 +728,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="15" t="inlineStr"/>
       <c r="E7" s="16" t="inlineStr">
         <is>
@@ -968,7 +972,11 @@
       </c>
       <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="15" t="inlineStr"/>
-      <c r="E17" s="11" t="inlineStr"/>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F17" s="15" t="inlineStr"/>
       <c r="G17" s="11" t="inlineStr"/>
     </row>
@@ -1131,7 +1139,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr"/>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D24" s="15" t="inlineStr"/>
       <c r="E24" s="16" t="inlineStr">
         <is>
@@ -1185,7 +1197,11 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr"/>
+      <c r="C26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D26" s="15" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -636,8 +636,16 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr"/>
-      <c r="D3" s="15" t="inlineStr"/>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -663,7 +671,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr"/>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D4" s="15" t="inlineStr"/>
       <c r="E4" s="16" t="inlineStr">
         <is>
@@ -757,7 +769,11 @@
       </c>
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="15" t="inlineStr"/>
-      <c r="E8" s="11" t="inlineStr"/>
+      <c r="E8" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F8" s="15" t="inlineStr"/>
       <c r="G8" s="11" t="inlineStr"/>
     </row>
@@ -770,7 +786,11 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr"/>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D9" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -781,7 +801,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F9" s="15" t="inlineStr"/>
+      <c r="F9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -827,7 +851,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F11" s="15" t="inlineStr"/>
+      <c r="F11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G11" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -897,7 +925,11 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr"/>
+      <c r="C14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D14" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -908,7 +940,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="F14" s="15" t="inlineStr"/>
+      <c r="F14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G14" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -951,7 +987,11 @@
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="11" t="inlineStr"/>
+      <c r="C16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D16" s="15" t="inlineStr"/>
       <c r="E16" s="16" t="inlineStr">
         <is>
@@ -977,7 +1017,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F17" s="15" t="inlineStr"/>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G17" s="11" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
@@ -1016,7 +1060,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr"/>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D19" s="15" t="inlineStr"/>
       <c r="E19" s="16" t="inlineStr">
         <is>
@@ -1144,13 +1192,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D24" s="15" t="inlineStr"/>
+      <c r="D24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F24" s="15" t="inlineStr"/>
+      <c r="F24" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1224,14 +1280,22 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr"/>
+      <c r="C27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D27" s="15" t="inlineStr"/>
       <c r="E27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F27" s="15" t="inlineStr"/>
+      <c r="F27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1490,7 +1554,11 @@
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr"/>
+      <c r="C37" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D37" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -709,7 +709,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F5" s="15" t="inlineStr"/>
+      <c r="F5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -878,7 +882,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F12" s="15" t="inlineStr"/>
+      <c r="F12" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G12" s="11" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
@@ -1473,7 +1481,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D34" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -732,7 +732,11 @@
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="15" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
-      <c r="F6" s="15" t="inlineStr"/>
+      <c r="F6" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G6" s="11" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
@@ -1135,7 +1139,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D21" s="15" t="inlineStr"/>
+      <c r="D21" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1266,13 +1274,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D26" s="15" t="inlineStr"/>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="F26" s="15" t="inlineStr"/>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G26" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1547,15 +1563,27 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr"/>
-      <c r="D36" s="15" t="inlineStr"/>
+      <c r="C36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E36" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="F36" s="15" t="inlineStr"/>
-      <c r="G36" s="11" t="inlineStr"/>
+      <c r="G36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -977,7 +977,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D15" s="15" t="inlineStr"/>
+      <c r="D15" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E15" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -703,7 +703,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr"/>
+      <c r="D5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E5" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -757,13 +757,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr"/>
+      <c r="D7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F7" s="15" t="inlineStr"/>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1261,7 +1269,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F25" s="15" t="inlineStr"/>
+      <c r="F25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G25" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1462,7 +1474,11 @@
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="15" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
-      <c r="F32" s="15" t="inlineStr"/>
+      <c r="F32" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G32" s="11" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
@@ -1520,7 +1536,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F34" s="15" t="inlineStr"/>
+      <c r="F34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G34" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -1370,7 +1370,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="F28" s="15" t="inlineStr"/>
+      <c r="F28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G28" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1637,7 +1641,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="F37" s="15" t="inlineStr"/>
+      <c r="F37" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G37" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -676,13 +676,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D4" s="15" t="inlineStr"/>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F4" s="15" t="inlineStr"/>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G4" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1093,13 +1101,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="15" t="inlineStr"/>
+      <c r="D19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F19" s="15" t="inlineStr"/>
+      <c r="F19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G19" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -743,7 +743,11 @@
       </c>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="15" t="inlineStr"/>
-      <c r="E6" s="11" t="inlineStr"/>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F6" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -1073,8 +1073,16 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr"/>
-      <c r="D18" s="15" t="inlineStr"/>
+      <c r="C18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E18" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -1234,7 +1234,11 @@
       </c>
       <c r="C23" s="11" t="inlineStr"/>
       <c r="D23" s="15" t="inlineStr"/>
-      <c r="E23" s="11" t="inlineStr"/>
+      <c r="E23" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F23" s="15" t="inlineStr"/>
       <c r="G23" s="11" t="inlineStr"/>
     </row>
@@ -1505,7 +1509,11 @@
       </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="15" t="inlineStr"/>
-      <c r="E32" s="11" t="inlineStr"/>
+      <c r="E32" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F32" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -1038,7 +1038,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F16" s="15" t="inlineStr"/>
+      <c r="F16" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G16" s="11" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
@@ -1646,7 +1650,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F36" s="15" t="inlineStr"/>
+      <c r="F36" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G36" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-8 (13 September 2021 - 19 September 2021).xlsx
@@ -1066,7 +1066,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G17" s="11" t="inlineStr"/>
+      <c r="G17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
